--- a/tests_results/Test_Tool.xlsx
+++ b/tests_results/Test_Tool.xlsx
@@ -449,7 +449,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -475,20 +475,35 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>gnd.profile</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>pred.profile</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>pred2.profile</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>pred3.profile</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>pred4.profile</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>pred5.profile</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>Aggregate</t>
         </is>
@@ -518,7 +533,16 @@
         <v>2</v>
       </c>
       <c r="G2" t="n">
-        <v>6</v>
+        <v>2</v>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -536,7 +560,7 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -546,6 +570,15 @@
       </c>
       <c r="G3" t="n">
         <v>0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -566,13 +599,22 @@
         <v>2</v>
       </c>
       <c r="E4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G4" t="n">
-        <v>5</v>
+        <v>2</v>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>2</v>
+      </c>
+      <c r="J4" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -599,7 +641,16 @@
         <v>1</v>
       </c>
       <c r="G5" t="n">
-        <v>3</v>
+        <v>1</v>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J5" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="6">
@@ -617,7 +668,7 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
         <v>1</v>
@@ -626,7 +677,16 @@
         <v>1</v>
       </c>
       <c r="G6" t="n">
-        <v>3</v>
+        <v>1</v>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="7">
@@ -644,7 +704,7 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -654,6 +714,15 @@
       </c>
       <c r="G7" t="n">
         <v>0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="8">
@@ -682,6 +751,15 @@
       <c r="G8" t="n">
         <v>0</v>
       </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -707,6 +785,123 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>rank2</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>anc|anc3</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>rank3</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>anc|anc2|strain1</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>rank2</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>bac|bac3|strain2</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>0</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
         <v>0</v>
       </c>
     </row>
@@ -721,7 +916,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -747,20 +942,35 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>gnd.profile</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>pred.profile</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>pred2.profile</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>pred3.profile</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>pred4.profile</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>pred5.profile</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>Aggregate</t>
         </is>
@@ -792,6 +1002,15 @@
       <c r="G2" t="n">
         <v>0</v>
       </c>
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>2</v>
+      </c>
+      <c r="J2" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -808,7 +1027,7 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>1</v>
@@ -817,7 +1036,16 @@
         <v>1</v>
       </c>
       <c r="G3" t="n">
-        <v>3</v>
+        <v>1</v>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
+      </c>
+      <c r="I3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J3" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -838,13 +1066,22 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G4" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="5">
@@ -873,6 +1110,15 @@
       <c r="G5" t="n">
         <v>0</v>
       </c>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -889,7 +1135,7 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -899,6 +1145,15 @@
       </c>
       <c r="G6" t="n">
         <v>0</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" t="n">
+        <v>1</v>
+      </c>
+      <c r="J6" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="7">
@@ -916,7 +1171,7 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>1</v>
@@ -925,7 +1180,16 @@
         <v>1</v>
       </c>
       <c r="G7" t="n">
-        <v>3</v>
+        <v>1</v>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
+      </c>
+      <c r="I7" t="n">
+        <v>1</v>
+      </c>
+      <c r="J7" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="8">
@@ -954,6 +1218,15 @@
       <c r="G8" t="n">
         <v>0</v>
       </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -979,6 +1252,123 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>rank2</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>anc|anc3</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>rank3</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>anc|anc2|strain1</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>rank2</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>bac|bac3|strain2</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>0</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
         <v>0</v>
       </c>
     </row>
@@ -993,7 +1383,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1019,20 +1409,35 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>gnd.profile</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>pred.profile</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>pred2.profile</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>pred3.profile</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>pred4.profile</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>pred5.profile</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>Aggregate</t>
         </is>
@@ -1064,6 +1469,15 @@
       <c r="G2" t="n">
         <v>0</v>
       </c>
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -1083,13 +1497,22 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>1</v>
       </c>
       <c r="G3" t="n">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -1118,6 +1541,15 @@
       <c r="G4" t="n">
         <v>0</v>
       </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -1134,7 +1566,7 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -1144,6 +1576,15 @@
       </c>
       <c r="G5" t="n">
         <v>0</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -1172,6 +1613,15 @@
       <c r="G6" t="n">
         <v>0</v>
       </c>
+      <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -1199,6 +1649,15 @@
       <c r="G7" t="n">
         <v>0</v>
       </c>
+      <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -1215,16 +1674,25 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>1</v>
+      </c>
+      <c r="J8" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="9">
@@ -1248,9 +1716,126 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
+        <v>1</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>rank2</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>anc|anc3</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="n">
+        <v>1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>rank3</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>anc|anc2|strain1</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>1</v>
+      </c>
+      <c r="J11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>rank2</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>bac|bac3|strain2</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>0</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" t="n">
+        <v>1</v>
+      </c>
+      <c r="J12" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1265,7 +1850,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1291,20 +1876,35 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>gnd.profile</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>pred.profile</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>pred2.profile</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>pred3.profile</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>pred4.profile</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>pred5.profile</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>Aggregate</t>
         </is>
@@ -1336,6 +1936,15 @@
       <c r="G2" t="n">
         <v>0</v>
       </c>
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -1355,13 +1964,22 @@
         <v>1</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J3" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -1390,6 +2008,15 @@
       <c r="G4" t="n">
         <v>0</v>
       </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -1406,7 +2033,7 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>1</v>
@@ -1415,7 +2042,16 @@
         <v>1</v>
       </c>
       <c r="G5" t="n">
-        <v>3</v>
+        <v>1</v>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J5" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="6">
@@ -1442,7 +2078,16 @@
         <v>1</v>
       </c>
       <c r="G6" t="n">
-        <v>3</v>
+        <v>1</v>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
+      <c r="I6" t="n">
+        <v>1</v>
+      </c>
+      <c r="J6" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="7">
@@ -1469,7 +2114,16 @@
         <v>1</v>
       </c>
       <c r="G7" t="n">
-        <v>3</v>
+        <v>1</v>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
+      </c>
+      <c r="I7" t="n">
+        <v>1</v>
+      </c>
+      <c r="J7" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="8">
@@ -1487,16 +2141,25 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F8" t="n">
         <v>2</v>
       </c>
       <c r="G8" t="n">
-        <v>5</v>
+        <v>2</v>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
+      </c>
+      <c r="I8" t="n">
+        <v>1</v>
+      </c>
+      <c r="J8" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="9">
@@ -1520,10 +2183,127 @@
         <v>2</v>
       </c>
       <c r="F9" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G9" t="n">
-        <v>5</v>
+        <v>1</v>
+      </c>
+      <c r="H9" t="n">
+        <v>2</v>
+      </c>
+      <c r="I9" t="n">
+        <v>2</v>
+      </c>
+      <c r="J9" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>rank2</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>anc|anc3</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>2</v>
+      </c>
+      <c r="E10" t="n">
+        <v>2</v>
+      </c>
+      <c r="F10" t="n">
+        <v>2</v>
+      </c>
+      <c r="G10" t="n">
+        <v>2</v>
+      </c>
+      <c r="H10" t="n">
+        <v>1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>2</v>
+      </c>
+      <c r="J10" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>rank3</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>anc|anc2|strain1</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>2</v>
+      </c>
+      <c r="E11" t="n">
+        <v>2</v>
+      </c>
+      <c r="F11" t="n">
+        <v>2</v>
+      </c>
+      <c r="G11" t="n">
+        <v>2</v>
+      </c>
+      <c r="H11" t="n">
+        <v>2</v>
+      </c>
+      <c r="I11" t="n">
+        <v>1</v>
+      </c>
+      <c r="J11" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>rank2</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>bac|bac3|strain2</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>2</v>
+      </c>
+      <c r="E12" t="n">
+        <v>2</v>
+      </c>
+      <c r="F12" t="n">
+        <v>2</v>
+      </c>
+      <c r="G12" t="n">
+        <v>2</v>
+      </c>
+      <c r="H12" t="n">
+        <v>2</v>
+      </c>
+      <c r="I12" t="n">
+        <v>1</v>
+      </c>
+      <c r="J12" t="n">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -1537,7 +2317,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1553,17 +2333,37 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>gnd.profile</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>pred.profile</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>pred2.profile</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>pred3.profile</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>pred4.profile</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>pred5.profile</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Aggregate</t>
         </is>
       </c>
     </row>
@@ -1580,21 +2380,49 @@
       <c r="D2" t="n">
         <v>1</v>
       </c>
+      <c r="E2" t="n">
+        <v>1</v>
+      </c>
+      <c r="F2" t="n">
+        <v>1</v>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>0</v>
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
       </c>
       <c r="D3" t="n">
         <v>0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>0.25</v>
       </c>
     </row>
     <row r="4">
@@ -1610,32 +2438,72 @@
       <c r="D4" t="n">
         <v>1</v>
       </c>
+      <c r="E4" t="n">
+        <v>1</v>
+      </c>
+      <c r="F4" t="n">
+        <v>1</v>
+      </c>
+      <c r="G4" t="n">
+        <v>1</v>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
       </c>
       <c r="D5" t="n">
         <v>1</v>
+      </c>
+      <c r="E5" t="n">
+        <v>1</v>
+      </c>
+      <c r="F5" t="n">
+        <v>1</v>
+      </c>
+      <c r="G5" t="n">
+        <v>1</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.8571428571428571</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="B6" t="n">
-        <v>1</v>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
       </c>
       <c r="C6" t="n">
         <v>1</v>
       </c>
       <c r="D6" t="n">
+        <v>1</v>
+      </c>
+      <c r="E6" t="n">
+        <v>1</v>
+      </c>
+      <c r="F6" t="n">
+        <v>1</v>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1643,10 +2511,8 @@
       <c r="A7" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
+      <c r="B7" t="n">
+        <v>1</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1657,24 +2523,58 @@
         <is>
           <t>nan</t>
         </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="B8" t="n">
-        <v>0</v>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>0</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
           <t>nan</t>
         </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1691,7 +2591,133 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="D9" t="n">
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="F10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="G11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="G12" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1706,7 +2732,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1722,17 +2748,37 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>gnd.profile</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>pred.profile</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>pred2.profile</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>pred3.profile</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>pred4.profile</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>pred5.profile</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Aggregate</t>
         </is>
       </c>
     </row>
@@ -1749,19 +2795,43 @@
       <c r="D2" t="n">
         <v>1</v>
       </c>
+      <c r="E2" t="n">
+        <v>1</v>
+      </c>
+      <c r="F2" t="n">
+        <v>1</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0.8333333333333334</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="4">
@@ -1772,10 +2842,22 @@
         <v>1</v>
       </c>
       <c r="C4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D4" t="n">
         <v>0.5</v>
       </c>
-      <c r="D4" t="n">
-        <v>1</v>
+      <c r="E4" t="n">
+        <v>1</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G4" t="n">
+        <v>1</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0.8333333333333334</v>
       </c>
     </row>
     <row r="5">
@@ -1791,19 +2873,43 @@
       <c r="D5" t="n">
         <v>1</v>
       </c>
+      <c r="E5" t="n">
+        <v>1</v>
+      </c>
+      <c r="F5" t="n">
+        <v>1</v>
+      </c>
+      <c r="G5" t="n">
+        <v>1</v>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
       </c>
       <c r="D6" t="n">
         <v>1</v>
+      </c>
+      <c r="E6" t="n">
+        <v>1</v>
+      </c>
+      <c r="F6" t="n">
+        <v>1</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0.6666666666666666</v>
       </c>
     </row>
     <row r="7">
@@ -1811,13 +2917,25 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="8">
@@ -1839,6 +2957,26 @@
           <t>nan</t>
         </is>
       </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -1855,6 +2993,146 @@
         </is>
       </c>
       <c r="D9" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
         <is>
           <t>nan</t>
         </is>

--- a/tests_results/Test_Tool.xlsx
+++ b/tests_results/Test_Tool.xlsx
@@ -475,32 +475,32 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>gnd.profile</t>
+          <t>pred.profile</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>pred.profile</t>
+          <t>pred2.profile</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>pred2.profile</t>
+          <t>pred3.profile</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>pred3.profile</t>
+          <t>pred4.profile</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>pred4.profile</t>
+          <t>pred5.profile</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>pred5.profile</t>
+          <t>truth.profile</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
@@ -524,25 +524,25 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J2" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3">
@@ -560,7 +560,7 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -575,7 +575,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J3" t="n">
         <v>1</v>
@@ -596,25 +596,25 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E4" t="n">
         <v>2</v>
       </c>
       <c r="F4" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G4" t="n">
         <v>2</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J4" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5">
@@ -632,25 +632,25 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I5" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J5" t="n">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6">
@@ -671,22 +671,22 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -704,7 +704,7 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -719,7 +719,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J7" t="n">
         <v>1</v>
@@ -875,7 +875,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>rank2</t>
+          <t>rank3</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -942,32 +942,32 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>gnd.profile</t>
+          <t>pred.profile</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>pred.profile</t>
+          <t>pred2.profile</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>pred2.profile</t>
+          <t>pred3.profile</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>pred3.profile</t>
+          <t>pred4.profile</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>pred4.profile</t>
+          <t>pred5.profile</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>pred5.profile</t>
+          <t>truth.profile</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
@@ -1003,10 +1003,10 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>2</v>
@@ -1027,7 +1027,7 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E3" t="n">
         <v>1</v>
@@ -1042,7 +1042,7 @@
         <v>1</v>
       </c>
       <c r="I3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>5</v>
@@ -1066,16 +1066,16 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -1099,25 +1099,25 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6">
@@ -1135,7 +1135,7 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -1150,10 +1150,10 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E7" t="n">
         <v>1</v>
@@ -1186,7 +1186,7 @@
         <v>1</v>
       </c>
       <c r="I7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>5</v>
@@ -1342,7 +1342,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>rank2</t>
+          <t>rank3</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -1409,32 +1409,32 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>gnd.profile</t>
+          <t>pred.profile</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>pred.profile</t>
+          <t>pred2.profile</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>pred2.profile</t>
+          <t>pred3.profile</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>pred3.profile</t>
+          <t>pred4.profile</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>pred4.profile</t>
+          <t>pred5.profile</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>pred5.profile</t>
+          <t>truth.profile</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
@@ -1497,7 +1497,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F3" t="n">
         <v>1</v>
@@ -1506,7 +1506,7 @@
         <v>1</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -1566,7 +1566,7 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -1584,7 +1584,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1602,16 +1602,16 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -1620,7 +1620,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7">
@@ -1674,10 +1674,10 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -1686,10 +1686,10 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>2</v>
@@ -1716,10 +1716,10 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -1755,10 +1755,10 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1794,10 +1794,10 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>1</v>
@@ -1809,7 +1809,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>rank2</t>
+          <t>rank3</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -1830,10 +1830,10 @@
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>1</v>
@@ -1876,32 +1876,32 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>gnd.profile</t>
+          <t>pred.profile</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>pred.profile</t>
+          <t>pred2.profile</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>pred2.profile</t>
+          <t>pred3.profile</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>pred3.profile</t>
+          <t>pred4.profile</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>pred4.profile</t>
+          <t>pred5.profile</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>pred5.profile</t>
+          <t>truth.profile</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
@@ -1961,25 +1961,25 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E3" t="n">
         <v>1</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J3" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -2036,22 +2036,22 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -2069,25 +2069,25 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I6" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J6" t="n">
-        <v>6</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7">
@@ -2105,25 +2105,25 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J7" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8">
@@ -2144,22 +2144,22 @@
         <v>2</v>
       </c>
       <c r="E8" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G8" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H8" t="n">
         <v>2</v>
       </c>
       <c r="I8" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J8" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9">
@@ -2177,25 +2177,25 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E9" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F9" t="n">
         <v>2</v>
       </c>
       <c r="G9" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H9" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I9" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J9" t="n">
-        <v>11</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10">
@@ -2213,25 +2213,25 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E10" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F10" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G10" t="n">
         <v>2</v>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I10" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J10" t="n">
-        <v>11</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11">
@@ -2249,25 +2249,25 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E11" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F11" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G11" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H11" t="n">
         <v>2</v>
       </c>
       <c r="I11" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J11" t="n">
-        <v>11</v>
+        <v>17</v>
       </c>
     </row>
     <row r="12">
@@ -2276,7 +2276,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>rank2</t>
+          <t>rank3</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -2285,25 +2285,25 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E12" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F12" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G12" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H12" t="n">
         <v>2</v>
       </c>
       <c r="I12" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J12" t="n">
-        <v>11</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -2317,7 +2317,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2333,35 +2333,45 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>gnd.profile</t>
+          <t>rank</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>pred.profile</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>pred2.profile</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>pred3.profile</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>pred4.profile</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>pred5.profile</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>truth.profile</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>Aggregate</t>
         </is>
@@ -2371,11 +2381,15 @@
       <c r="A2" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B2" t="n">
-        <v>1</v>
-      </c>
-      <c r="C2" t="n">
-        <v>1</v>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>rank1</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>bac</t>
+        </is>
       </c>
       <c r="D2" t="n">
         <v>1</v>
@@ -2386,12 +2400,16 @@
       <c r="F2" t="n">
         <v>1</v>
       </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
+      <c r="G2" t="n">
+        <v>1</v>
       </c>
       <c r="H2" t="n">
+        <v>1</v>
+      </c>
+      <c r="I2" t="n">
+        <v>1</v>
+      </c>
+      <c r="J2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2399,16 +2417,20 @@
       <c r="A3" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B3" t="n">
-        <v>1</v>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>rank1</t>
+        </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="D3" t="n">
-        <v>0</v>
+          <t>anc</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -2416,12 +2438,18 @@
       <c r="F3" t="n">
         <v>0</v>
       </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="I3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J3" t="n">
         <v>0.25</v>
       </c>
     </row>
@@ -2429,11 +2457,15 @@
       <c r="A4" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B4" t="n">
-        <v>1</v>
-      </c>
-      <c r="C4" t="n">
-        <v>1</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>rank2</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>bac|bac1</t>
+        </is>
       </c>
       <c r="D4" t="n">
         <v>1</v>
@@ -2448,6 +2480,12 @@
         <v>1</v>
       </c>
       <c r="H4" t="n">
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>1</v>
+      </c>
+      <c r="J4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2455,11 +2493,15 @@
       <c r="A5" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B5" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="C5" t="n">
-        <v>1</v>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>rank2</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>bac|bac2</t>
+        </is>
       </c>
       <c r="D5" t="n">
         <v>1</v>
@@ -2474,7 +2516,13 @@
         <v>1</v>
       </c>
       <c r="H5" t="n">
-        <v>0.8571428571428571</v>
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J5" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -2483,40 +2531,52 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>1</v>
+          <t>rank2</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>bac|bac3</t>
+        </is>
       </c>
       <c r="D6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>1</v>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="J6" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B7" t="n">
-        <v>1</v>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>rank2</t>
+        </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>anc|anc1</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -2539,7 +2599,15 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="H7" t="n">
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="I7" t="n">
+        <v>1</v>
+      </c>
+      <c r="J7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2549,16 +2617,16 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>0</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
+          <t>rank2</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>bac|bac4</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
@@ -2570,10 +2638,20 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="G8" t="n">
-        <v>0</v>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
       </c>
       <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="J8" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2583,12 +2661,12 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>rank2</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>anc|anc2</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -2596,20 +2674,30 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="E9" t="n">
-        <v>0</v>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="F9" t="n">
+        <v>0</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
           <t>nan</t>
         </is>
       </c>
-      <c r="H9" t="n">
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="J9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2619,12 +2707,12 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>rank2</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>anc|anc3</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -2637,15 +2725,25 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="F10" t="n">
-        <v>0</v>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="J10" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2655,12 +2753,12 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>rank3</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>anc|anc2|strain1</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -2678,10 +2776,20 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="G11" t="n">
-        <v>0</v>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
       </c>
       <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="J11" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2691,12 +2799,12 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>rank3</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>bac|bac3|strain2</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -2714,10 +2822,20 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="G12" t="n">
-        <v>0</v>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
       </c>
       <c r="H12" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="J12" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2732,7 +2850,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2748,35 +2866,45 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>gnd.profile</t>
+          <t>rank</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>pred.profile</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>pred2.profile</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>pred3.profile</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>pred4.profile</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>pred5.profile</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>truth.profile</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>Aggregate</t>
         </is>
@@ -2786,11 +2914,15 @@
       <c r="A2" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B2" t="n">
-        <v>1</v>
-      </c>
-      <c r="C2" t="n">
-        <v>1</v>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>rank1</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>bac</t>
+        </is>
       </c>
       <c r="D2" t="n">
         <v>1</v>
@@ -2802,21 +2934,31 @@
         <v>1</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H2" t="n">
-        <v>0.8333333333333334</v>
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="I2" t="n">
+        <v>1</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0.8888888888888888</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B3" t="n">
-        <v>1</v>
-      </c>
-      <c r="C3" t="n">
-        <v>0</v>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>rank1</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>anc</t>
+        </is>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -2831,6 +2973,12 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J3" t="n">
         <v>0.1666666666666667</v>
       </c>
     </row>
@@ -2838,89 +2986,137 @@
       <c r="A4" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B4" t="n">
-        <v>1</v>
-      </c>
-      <c r="C4" t="n">
-        <v>1</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>rank2</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>bac|bac1</t>
+        </is>
       </c>
       <c r="D4" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="E4" t="n">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="F4" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G4" t="n">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="H4" t="n">
-        <v>0.8333333333333334</v>
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>1</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.8888888888888888</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B5" t="n">
-        <v>1</v>
-      </c>
-      <c r="C5" t="n">
-        <v>1</v>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>rank2</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>bac|bac2</t>
+        </is>
       </c>
       <c r="D5" t="n">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="E5" t="n">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="F5" t="n">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5" t="n">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="I5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0.7222222222222222</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="B6" t="n">
-        <v>0</v>
-      </c>
-      <c r="C6" t="n">
-        <v>1</v>
-      </c>
-      <c r="D6" t="n">
-        <v>1</v>
-      </c>
-      <c r="E6" t="n">
-        <v>1</v>
-      </c>
-      <c r="F6" t="n">
-        <v>1</v>
-      </c>
-      <c r="G6" t="n">
-        <v>0</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0.6666666666666666</v>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>rank2</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>bac|bac3</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B7" t="n">
-        <v>1</v>
-      </c>
-      <c r="C7" t="n">
-        <v>0</v>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>rank2</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>anc|anc1</t>
+        </is>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -2935,6 +3131,12 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
+        <v>1</v>
+      </c>
+      <c r="J7" t="n">
         <v>0.1666666666666667</v>
       </c>
     </row>
@@ -2944,12 +3146,12 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>rank2</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>bac|bac4</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -2973,6 +3175,16 @@
         </is>
       </c>
       <c r="H8" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
         <is>
           <t>nan</t>
         </is>
@@ -2984,12 +3196,12 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>rank2</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>anc|anc2</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -3013,6 +3225,16 @@
         </is>
       </c>
       <c r="H9" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
         <is>
           <t>nan</t>
         </is>
@@ -3024,12 +3246,12 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>rank2</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>anc|anc3</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -3053,6 +3275,16 @@
         </is>
       </c>
       <c r="H10" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
         <is>
           <t>nan</t>
         </is>
@@ -3064,12 +3296,12 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>rank3</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>anc|anc2|strain1</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -3093,6 +3325,16 @@
         </is>
       </c>
       <c r="H11" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
         <is>
           <t>nan</t>
         </is>
@@ -3104,12 +3346,12 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>rank3</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>bac|bac3|strain2</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -3133,6 +3375,16 @@
         </is>
       </c>
       <c r="H12" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
         <is>
           <t>nan</t>
         </is>
